--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\33. postcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3427C464-0D86-4FEB-AEED-412E36EAB57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D363E8E-391A-4D33-979D-E22AD4E2F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -228,10 +228,10 @@
     <t>2023-09-16</t>
   </si>
   <si>
-    <t>HJU-ad35asd-s</t>
+    <t>ทดสอบ</t>
   </si>
   <si>
-    <t>ทดสอบ</t>
+    <t>qw-t65-1asf6sa</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +796,7 @@
     </row>
     <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>66</v>
@@ -851,7 +851,7 @@
         <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>56</v>
@@ -877,7 +877,7 @@
         <v>61</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>62</v>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\test gestamp\Data Files\Input Validation\33. postcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D363E8E-391A-4D33-979D-E22AD4E2F2C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0FD70-6387-468D-B257-CB437ABB14DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcMode="manual"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -225,13 +225,13 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t>ทดสอบ</t>
   </si>
   <si>
     <t>qw-t65-1asf6sa</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -796,10 +796,10 @@
     </row>
     <row r="2" spans="1:50 16383:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -851,7 +851,7 @@
         <v>52</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W2" s="2" t="s">
         <v>56</v>
@@ -877,7 +877,7 @@
         <v>61</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="2" t="s">
         <v>62</v>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E0FD70-6387-468D-B257-CB437ABB14DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A41B5B-09ED-4E53-86BA-CE741690D340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <t>qw-t65-1asf6sa</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A41B5B-09ED-4E53-86BA-CE741690D340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A2DB3-464C-4955-B3FA-A644C1197505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>contractNo</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -599,7 +602,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,7 +894,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3A2DB3-464C-4955-B3FA-A644C1197505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF568FA9-3BB2-4872-A460-01E565D81944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
     <t>qw-t65-1asf6sa</t>
   </si>
   <si>
-    <t>2023-10-16</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -802,7 +802,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -894,7 +894,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>51</v>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DBE5FC-38CF-417C-9294-A19BF1209355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5DC0A6-B865-4C16-B182-D5F9FB1C8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1665" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5DC0A6-B865-4C16-B182-D5F9FB1C8025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FD3AFD-743C-4394-8239-914A3F8BD2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2415" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -302,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBF62D8-79AB-40BC-A558-45746D1906D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE3F72-874E-4CB5-8B19-4E3AE560AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -302,9 +302,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -342,7 +342,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -448,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -602,7 +602,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE3F72-874E-4CB5-8B19-4E3AE560AF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821131A1-4334-41AD-AEFF-A2B9D23C9192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
+++ b/Data Files/Input Validation/33. postcode/Auto_PostCode_C6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821131A1-4334-41AD-AEFF-A2B9D23C9192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305BB62-66CB-449C-9AC9-491FB5AE8A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
